--- a/dataset_remessas_220223.xlsx
+++ b/dataset_remessas_220223.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">questions</t>
   </si>
@@ -481,22 +481,9 @@
 encomenda aguardando retirada</t>
   </si>
   <si>
-    <t xml:space="preserve">A encomenda internacional é um transporte "porta-a-porta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ou seja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> o frete contratado já inclui o despacho aduaneiro e a entrega da encomenda no endereço apontado nos documentos de importação. Dessa maneira</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a transportadora é responsável por todo o processo até a entrega. Exceções à regra devem ser tratadas diretamente com a transportadora.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você deverá acompanhar o andamento da sua encomenda &lt;a href='http://www2.correios.com.br/SISTEMAS/RASTREAMENTO/' target='_blank' &gt;consultando o rastreamento no site dos Correios&lt;/a&gt; ou da empresa transportadora contratada. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;Consulte aqui a relação de empresas transportadoras autorizadas a operar na modalidade Remessa Expressa e o site de cada uma&lt;/a&gt;."</t>
+    <t xml:space="preserve">A encomenda internacional é um transporte  porta-a-porta , ou seja, o frete contratado já inclui o despacho aduaneiro e a entrega da encomenda no endereço apontado nos documentos de importação. Dessa maneira, a transportadora é responsável por todo o processo até a entrega. Exceções à regra devem ser tratadas diretamente com a transportadora.
+Você deverá acompanhar o andamento da sua encomenda &lt;a href='http://www2.correios.com.br/SISTEMAS/RASTREAMENTO/' target='_blank' &gt;consultando o rastreamento no site dos Correios&lt;/a&gt; ou da empresa transportadora contratada. -
+&lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;Consulte aqui a relação de empresas transportadoras autorizadas a operar na modalidade Remessa Expressa e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">A fiscalização pode me dar outra chance e fazer uma nova análise?
@@ -3061,466 +3048,132 @@
 Encomenda indevidamente não autorizada
 Encomenda pelo correio não autorizada
 Encomenda recusada pela receita federal
-Estou acompanhando uma encomenda de um pedido que fiz de um jogo de tabuleiro, ao verificar no portal importador dos correios, verifiquei que a situação estava "Importação Não Autorizada - Objeto sujeito à devolução</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> com a mensagem detalhada abaixo:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estou com a razão em não aceitar a proibição de entrada do produto no país e sua devolução ao remetente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe algo proibido de trazer do exterior?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posso trazer cigarro pelo correio?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posso trazer vinho pelo correio?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe limite para importar e trazer pelos Correios?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiz  a  compra e importação de um produto pelo ALIEXPRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anexei meu CPF e parou na fiscalização aduaneira  com  os  seguintes avisos em minha conta no site dos correios:"Não   foi   autorizada   a   entrada   do  objeto  no  país  pelos  órgãos fiscalizadores.  Objeto  em análise de destinação - poderá ser devolvido ao remetente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  encaminhado para refugo ou apreendido". E em MINHAS IMPORTAÇÕES - Importação  Não Autorizada - Objeto sujeito à devolução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gostaria de saber porque o produto não pode entrar aqui no Brasil e obter informações se existe algum procedimento para regularizar a entrada do produto .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importação  Não Autorizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importação de pessoa física não autorizada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importação de produto negada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não foi autorizada a entrada do objeto no país pelos órgãos fiscalizadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não posso aceitar a simples informação de que a remessa está em fase avançada de devolução à origem !. A não autorização de entrada no país e a devolução de um simples arco de esportes  foi baseada em qual lei ou portaria governamental ? Ou foi um fiscal que decidiu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> baseado em alguma nova legislação ? Eu examinei toda a legislação sobre materiais e artigos proibidos nos sites dos Correios e da RFB..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que é permitido comprar no exterior e trazer pelos Correios?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que é proibido trazer ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que eu não posso importar ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que eu posso trazer do exterior como remessa expressa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que eu posso trazer do exterior como remessa postal ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que não pode ser importado por meio de remessas internacionais?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que pode ser importado como remessa internacional?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O QUE PODE SER LIBERADO NA MODALIDADE COURIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que posso comprar nos sites internacionais que não vai ser barrado pela fiscalização?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido por: ANVISA/VIGILANCIA SANITARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido por: BOMBEIROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido por: EXERCITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido por: IBAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido por: POLICIA CIVIL/MILITAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido por: POLICIA FEDERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientação sobre produto apreendido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientacao sobre produto apreendido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solicitação de mercadoria apreendida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solicitacao de mercadoria apreendida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remessa detida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto apreendido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que minha importação não foi autorizada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que minha remessa teve Importação não autorizada e o que fazer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porque minha encomenda ficou retida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porque minha encomenda foi pra anvisa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso comprar qualquer item pelo site Ali Express que chega aqui?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso comprar qualquer produto pela Internet que chega aqui?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso enviar dinheiro?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSSO IMPORTAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar o que quiser?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posso importar um barco?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar sementes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar um produto que não existe aqui no Brasil porque a Anvisa não aprovou?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar uma arma?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posso trazer drogas por remessa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar uma moto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso receber alimentos do Japão?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso receber dinheiro?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais itens posso receber do exterior?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais mercadorias posso encomendar fora ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais os produtos proibidos para importar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais produtos posso encomendar do exterior?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quais produtos são permitidos enviar para o Brasil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posso trazer pelo correio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais são as mercadorias que não posso trazer ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quero autorização da entrada de meu produto no país</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> o item em que estou importando é um aparelho de colecionador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trata-se de um vídeo game e o mesmo é relíquia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> por esse motivo todos os comprovantes legais possíveis que tenho e que já disponibilizei anteriormente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pois a compra que foi pela internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ja o remetente não possui a nf de compra justamente por ser usado e de colecionador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> esses documentos foram todos rejeitados pelo portal minhas importações dos correios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quero comprar no site internacional alguns produtos para revender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> posso?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quero enviar ouro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pedras preciosas para o exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> o que preciso fazer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizei uma compra internacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a qual foi indevidamente não autorizada pela RFB. Por gentileza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> liberem a referida encomenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retenção de mercadoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se o site internacional diz que posso trazer um produto para o Brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> posso comprar com segurança?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sou artesão e quero trazer algumas pedras semi preciosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tem alguma mercadoria que eu não possa trazer ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venho por meio deste e-mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> manifestar sobre a decisão da fiscalização da minha encomenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> que foi determinado que era para revenda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negaram a entrada da minha encomenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> como faço para retirar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Já apresentei todos os documentos mas no Correios diz que a importação não foi autorizada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que são substâncias proibidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso comprar até que valor ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso comprar bebida alcoolica?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar pedras preciosas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar um drone?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso receber charuto ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso receber qualquer tipo de alimento?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso trazer jóias?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso trazer todo o enxoval do meu bebê?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quero trazer algumas ervas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juro que não trouxe nada perigoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vale a pena importar este produto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar uma cobra naja?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posso comprar qualquer coisa vendida nos sites internacionais?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">não fui avisado que era proibido receber este tipo de produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">não autorização para receber a encomenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proibição de importação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como faco para importar legalmente pelos correios?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E possivel enviar ou receber valores em especie (moeda/dinheiro) por remessa internacional? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encomenda indevidamente nao autorizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encomenda pelo correio nao autorizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estou acompanhando uma encomenda de um pedido que fiz de um jogo de tabuleiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ao verificar no portal importador dos correios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> verifiquei que a situacao estava "Importacao Nao Autorizada - Objeto sujeito a devolucao"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estou com a razao em nao aceitar a proibicao de entrada do produto no pais e sua devolucao ao remetente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiz  a  compra e importacao de um produto pelo ALIEXPRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anexei meu CPF e parou na fiscalizacao aduaneira  com  os  seguintes avisos em minha conta no site dos correios:"Nao   foi   autorizada   a   entrada   do  objeto  no  pais  pelos  orgaos fiscalizadores.  Objeto  em analise de destinacao - podera ser devolvido ao remetente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  encaminhado para refugo ou apreendido". E em MINHAS IMPORTACOES - Importacao  Nao Autorizada - Objeto sujeito a devolucao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gostaria de saber porque o produto nao pode entrar aqui no Brasil e obter informacoes se existe algum procedimento para regularizar a entrada do produto .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importacao  Nao Autorizada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importacao de pessoa fisica nao autorizada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importacao de produto negada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nao foi autorizada a entrada do objeto no pais pelos orgaos fiscalizadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nao posso aceitar a simples informacao de que a remessa esta em fase avancada de devolucao a origem !. A nao autorizacao de entrada no pais e a devolucao de um simples arco de esportes  foi baseada em qual lei ou portaria governamental ? Ou foi um fiscal que decidiu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> baseado em alguma nova legislacao ? Eu examinei toda a legislacao sobre materiais e artigos proibidos nos sites dos Correios e da RFB..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que e proibido trazer ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que nao pode ser importado por meio de remessas internacionais?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que posso comprar nos sites internacionais que nao vai ser barrado pela fiscalizacao?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que minha importacao nao foi autorizada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por que minha remessa teve Importacao nao autorizada e o que fazer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso importar um produto que nao existe aqui no Brasil porque a Anvisa nao aprovou?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso receber alimentos do Japao?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quais produtos sao permitidos enviar para o Brasil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais sao as mercadorias que nao posso trazer ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quero autorizacao da entrada de meu produto no pais</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> o item em que estou importando e um aparelho de colecionador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trata-se de um video game e o mesmo e reliquia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> por esse motivo todos os comprovantes legais possiveis que tenho e que ja disponibilizei anteriormente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ja o remetente nao possui a nf de compra justamente por ser usado e de colecionador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> esses documentos foram todos rejeitados pelo portal minhas importacoes dos correios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a qual foi indevidamente nao autorizada pela RFB. Por gentileza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retencao de mercadoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> posso comprar com seguranca?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sou artesao e quero trazer algumas pedras semi preciosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tem alguma mercadoria que eu nao possa trazer ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> como faco para retirar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja apresentei todos os documentos mas no Correios diz que a importacao nao foi autorizada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que sao substancias proibidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso comprar ate que valor ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso trazer joias?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posso trazer todo o enxoval do meu bebe?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juro que nao trouxe nada perigoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nao fui avisado que era proibido receber este tipo de produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nao autorizacao para receber a encomenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proibicao de importacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">despacho de arma de fogo"</t>
+Estou acompanhando uma encomenda de um pedido que fiz de um jogo de tabuleiro, ao verificar no portal importador dos correios, verifiquei que a situação estava  Importação Não Autorizada - Objeto sujeito à devolução , com a mensagem detalhada abaixo:
+Estou com a razão em não aceitar a proibição de entrada do produto no país e sua devolução ao remetente. 
+Existe algo proibido de trazer do exterior?
+posso trazer cigarro pelo correio?
+posso trazer vinho pelo correio?
+Existe limite para importar e trazer pelos Correios?
+Fiz  a  compra e importação de um produto pelo ALIEXPRESS, anexei meu CPF e parou na fiscalização aduaneira  com  os  seguintes avisos em minha conta no site dos correios: Não   foi   autorizada   a   entrada   do  objeto  no  país  pelos  órgãos fiscalizadores.  Objeto  em análise de destinação - poderá ser devolvido ao remetente,  encaminhado para refugo ou apreendido . E em MINHAS IMPORTAÇÕES - Importação  Não Autorizada - Objeto sujeito à devolução
+Gostaria de saber porque o produto não pode entrar aqui no Brasil e obter informações se existe algum procedimento para regularizar a entrada do produto .
+Importação  Não Autorizada
+Importação de pessoa física não autorizada.
+Importação de produto negada
+Não foi autorizada a entrada do objeto no país pelos órgãos fiscalizadores
+Não posso aceitar a simples informação de que a remessa está em fase avançada de devolução à origem !. A não autorização de entrada no país e a devolução de um simples arco de esportes  foi baseada em qual lei ou portaria governamental ? Ou foi um fiscal que decidiu, baseado em alguma nova legislação ? Eu examinei toda a legislação sobre materiais e artigos proibidos nos sites dos Correios e da RFB..
+O que é permitido comprar no exterior e trazer pelos Correios?
+O que é proibido trazer ? 
+O que eu não posso importar ? 
+O que eu posso trazer do exterior como remessa expressa?
+O que eu posso trazer do exterior como remessa postal ?
+O que não pode ser importado por meio de remessas internacionais?
+O que pode ser importado como remessa internacional?
+O QUE PODE SER LIBERADO NA MODALIDADE COURIER
+O que posso comprar nos sites internacionais que não vai ser barrado pela fiscalização?
+Objeto apreendido por: ANVISA/VIGILANCIA SANITARIA
+Objeto apreendido por: BOMBEIROS
+Objeto apreendido por: EXERCITO
+Objeto apreendido por: IBAMA
+Objeto apreendido por: POLICIA CIVIL/MILITAR
+Objeto apreendido por: POLICIA FEDERAL
+Orientação sobre produto apreendido
+Orientacao sobre produto apreendido
+solicitação de mercadoria apreendida
+solicitacao de mercadoria apreendida
+Remessa detida 
+Objeto apreendido
+Por que minha importação não foi autorizada?
+Por que minha remessa teve Importação não autorizada e o que fazer?
+porque minha encomenda ficou retida
+porque minha encomenda foi pra anvisa?
+Posso comprar qualquer item pelo site Ali Express que chega aqui?
+Posso comprar qualquer produto pela Internet que chega aqui?
+Posso enviar dinheiro?
+POSSO IMPORTAR
+Posso importar o que quiser?
+posso importar um barco?
+Posso importar sementes?
+Posso importar um produto que não existe aqui no Brasil porque a Anvisa não aprovou?
+Posso importar uma arma?
+posso trazer drogas por remessa?
+Posso importar uma moto?
+Posso receber alimentos do Japão?
+Posso receber dinheiro?
+Quais itens posso receber do exterior?
+Quais mercadorias posso encomendar fora ? 
+Quais os produtos proibidos para importar?
+Quais produtos posso encomendar do exterior?
+quais produtos são permitidos enviar para o Brasil.
+posso trazer pelo correio 
+Quais são as mercadorias que não posso trazer ? 
+quero autorização da entrada de meu produto no país, o item em que estou importando é um aparelho de colecionador, trata-se de um vídeo game e o mesmo é relíquia, por esse motivo todos os comprovantes legais possíveis que tenho e que já disponibilizei anteriormente, pois a compra que foi pela internet, ja o remetente não possui a nf de compra justamente por ser usado e de colecionador, esses documentos foram todos rejeitados pelo portal minhas importações dos correios
+Quero comprar no site internacional alguns produtos para revender, posso?
+Quero enviar ouro, pedras preciosas para o exterior, o que preciso fazer?
+Realizei uma compra internacional, a qual foi indevidamente não autorizada pela RFB. Por gentileza, liberem a referida encomenda
+Retenção de mercadoria
+Se o site internacional diz que posso trazer um produto para o Brasil, posso comprar com segurança?
+Sou artesão e quero trazer algumas pedras semi preciosas, posso?
+Tem alguma mercadoria que eu não possa trazer ? 
+Venho por meio deste e-mail, manifestar sobre a decisão da fiscalização da minha encomenda, que foi determinado que era para revenda.
+Negaram a entrada da minha encomenda, como faço para retirar?
+Já apresentei todos os documentos mas no Correios diz que a importação não foi autorizada.
+O que são substâncias proibidas?
+Posso comprar até que valor ?
+Posso comprar bebida alcoolica?
+Posso importar pedras preciosas?
+Posso importar um drone?
+Posso receber charuto ?
+Posso receber qualquer tipo de alimento?
+Posso trazer jóias?
+Posso trazer todo o enxoval do meu bebê?
+Quero trazer algumas ervas
+Juro que não trouxe nada perigoso
+Vale a pena importar este produto?
+Posso importar uma cobra naja?
+posso comprar qualquer coisa vendida nos sites internacionais?
+não fui avisado que era proibido receber este tipo de produto
+não autorização para receber a encomenda
+proibição de importação
+como faco para importar legalmente pelos correios?
+E possivel enviar ou receber valores em especie (moeda/dinheiro) por remessa internacional? 
+Encomenda indevidamente nao autorizada
+Encomenda pelo correio nao autorizada
+Estou acompanhando uma encomenda de um pedido que fiz de um jogo de tabuleiro, ao verificar no portal importador dos correios, verifiquei que a situacao estava  Importacao Nao Autorizada - Objeto sujeito a devolucao , com a mensagem detalhada abaixo:
+Estou com a razao em nao aceitar a proibicao de entrada do produto no pais e sua devolucao ao remetente. 
+Fiz  a  compra e importacao de um produto pelo ALIEXPRESS, anexei meu CPF e parou na fiscalizacao aduaneira  com  os  seguintes avisos em minha conta no site dos correios: Nao   foi   autorizada   a   entrada   do  objeto  no  pais  pelos  orgaos fiscalizadores.  Objeto  em analise de destinacao - podera ser devolvido ao remetente,  encaminhado para refugo ou apreendido . E em MINHAS IMPORTACOES - Importacao  Nao Autorizada - Objeto sujeito a devolucao
+Gostaria de saber porque o produto nao pode entrar aqui no Brasil e obter informacoes se existe algum procedimento para regularizar a entrada do produto .
+Importacao  Nao Autorizada
+Importacao de pessoa fisica nao autorizada.
+Importacao de produto negada
+Nao foi autorizada a entrada do objeto no pais pelos orgaos fiscalizadores
+Nao posso aceitar a simples informacao de que a remessa esta em fase avancada de devolucao a origem !. A nao autorizacao de entrada no pais e a devolucao de um simples arco de esportes  foi baseada em qual lei ou portaria governamental ? Ou foi um fiscal que decidiu, baseado em alguma nova legislacao ? Eu examinei toda a legislacao sobre materiais e artigos proibidos nos sites dos Correios e da RFB..
+O que e proibido trazer ? 
+O que eu não posso importar ? 
+O que nao pode ser importado por meio de remessas internacionais?
+O que posso comprar nos sites internacionais que nao vai ser barrado pela fiscalizacao?
+Por que minha importacao nao foi autorizada?
+Por que minha remessa teve Importacao nao autorizada e o que fazer?
+Posso importar um produto que nao existe aqui no Brasil porque a Anvisa nao aprovou?
+Posso receber alimentos do Japao?
+quais produtos sao permitidos enviar para o Brasil.
+Quais sao as mercadorias que nao posso trazer ? 
+quero autorizacao da entrada de meu produto no pais, o item em que estou importando e um aparelho de colecionador, trata-se de um video game e o mesmo e reliquia, por esse motivo todos os comprovantes legais possiveis que tenho e que ja disponibilizei anteriormente, pois a compra que foi pela internet, ja o remetente nao possui a nf de compra justamente por ser usado e de colecionador, esses documentos foram todos rejeitados pelo portal minhas importacoes dos correios
+Realizei uma compra internacional, a qual foi indevidamente nao autorizada pela RFB. Por gentileza, liberem a referida encomenda
+Retencao de mercadoria
+Se o site internacional diz que posso trazer um produto para o Brasil, posso comprar com seguranca?
+Sou artesao e quero trazer algumas pedras semi preciosas, posso?
+Tem alguma mercadoria que eu nao possa trazer ? 
+Negaram a entrada da minha encomenda, como faco para retirar?
+Ja apresentei todos os documentos mas no Correios diz que a importacao nao foi autorizada.
+O que sao substancias proibidas?
+Posso comprar ate que valor ?
+Posso trazer joias?
+Posso trazer todo o enxoval do meu bebe?
+Juro que nao trouxe nada perigoso
+nao fui avisado que era proibido receber este tipo de produto
+nao autorizacao para receber a encomenda
+proibicao de importacao
+despacho de arma de fogo</t>
   </si>
   <si>
     <t xml:space="preserve">Você pode importar ou exportar qualquer bem que não seja proibido pela legislação. Se importar algo proibido, sua encomenda poderá ser apreendida.
@@ -4159,7 +3812,7 @@
 Minha remessa está na fiscalização e estão pedindo informações, o que tenho que entregar?
 Minha remessa já está há muitos dias parada. Podem verificar ? 
 Minha remessa veio pela DHL , porque ainda está parada na Receita?
-Não entendo o que é "aguardando envio de informações pelo destinatário".
+Não entendo o que é  aguardando envio de informações pelo destinatário .
 No site dos Correios diz que está Em fiscalização pela Receita Federal
 minha encomenda caiu em fiscalização
 O objeto está em poder da autoridade competente
@@ -4223,7 +3876,7 @@
 podem conferir fisicamente?
 Tenho dúvidas sobre a entrega de documentos, cumprimento de exigências
 Tenho dúvidas sobre o que apresentar para a fiscalização
-Tenho uma encomenda que foi enviada de Portugal para o Brasil, porem no siste do CTT Expresso, só tenho a informação que o mesmo esta "Aguardando procedimentos declarativos". 
+Tenho uma encomenda que foi enviada de Portugal para o Brasil, porem no siste do CTT Expresso, só tenho a informação que o mesmo esta  Aguardando procedimentos declarativos . 
 Termo de retenção de bens
 Transportadora diz para eu entrar em contato com RFB para poder liberar a minha encomenda. 
 Vocês demoram muito tempo para liberar a mercadoria ? 
@@ -4343,7 +3996,7 @@
 Minha remessa esta na fiscalizacao e estao pedindo informacoes, o que tenho que entregar?
 Minha remessa ja esta ha muitos dias parada. Podem verificar ? 
 Minha remessa veio pela DHL , porque ainda esta parada na Receita?
-Nao entendo o que e "aguardando envio de informacoes pelo destinatario".
+Nao entendo o que e  aguardando envio de informacoes pelo destinatario .
 No site dos Correios diz que esta Em fiscalizacao pela Receita Federal
 minha encomenda caiu em fiscalizacao
 O objeto esta em poder da autoridade competente
@@ -4398,7 +4051,7 @@
 o que e verificacao fisica
 Tenho duvidas sobre a entrega de documentos, cumprimento de exigencias
 Tenho duvidas sobre o que apresentar para a fiscalizacao
-Tenho uma encomenda que foi enviada de Portugal para o Brasil, porem no site do CTT Expresso, so tenho a informacao que o mesmo esta "Aguardando procedimentos declarativos". 
+Tenho uma encomenda que foi enviada de Portugal para o Brasil, porem no site do CTT Expresso, so tenho a informacao que o mesmo esta  Aguardando procedimentos declarativos . 
 Termo de retencao de bens
 Voces demoram muito tempo para liberar a mercadoria ? 
 Fiscalizacao concluida e remessa liberada para entrega.
@@ -5605,7 +5258,7 @@
     <t xml:space="preserve">encomendas internacionais são bens ou documentos que chegam ou saem do Brasil transportados:
 - pelos Correios, que são as encomendas postais; 
 - por empresas privadas de transporte expresso internacional, também conhecidas como empresas de courier, que são as encomendas expressas.  
-Para saber mais sobre os aspectos gerais de encomendas Internacionais, as declarações, impostos e procedimentos, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa' &gt;consulte o Manual de Remessas Internacionais&lt;/a&gt;." </t>
+Para saber mais sobre os aspectos gerais de encomendas Internacionais, as declarações, impostos e procedimentos, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa' &gt;consulte o Manual de Remessas Internacionais&lt;/a&gt;.  </t>
   </si>
   <si>
     <t xml:space="preserve">auxílio emergencial
@@ -5848,12 +5501,12 @@
 devo estra cadastrada em algum lugar para comprar de site internacional?</t>
   </si>
   <si>
-    <t xml:space="preserve">"Não é necessário nenhum cadastro prévio na Receita, nem mesmo habilitação ou DTE, para utilização dos Regimes de tributação:
+    <t xml:space="preserve"> Não é necessário nenhum cadastro prévio na Receita, nem mesmo habilitação ou DTE, para utilização dos Regimes de tributação:
  - Simplificada, que permite o pagamento do imposto de importação na alíquota única de 60%, na importação de bens contidos em encomenda internacional. 
 - Especial, que pode ser usado nos casos de bagagem que chegam ao país como encomenda internacional.   
 Entretanto, se o regime comum de importação for aplicado, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/habilitacao' &gt; devem ser observadas as regras gerais do despacho aduaneiro e seus pré-requisitos&lt;/a&gt;.
 Em alguns casos, pode ser necessária a autorização de outros órgãos. 
-Sobre a necessidade de algum cadastro nos correios ou transportadora contratada, verifique no atendimento daquelas empresas." </t>
+Sobre a necessidade de algum cadastro nos correios ou transportadora contratada, verifique no atendimento daquelas empresas.  </t>
   </si>
   <si>
     <t xml:space="preserve">Vou receber um presente que custa menos de 100 dólares. Terei que pagar algum valor?
@@ -5971,9 +5624,9 @@
 Comprei no site internacional para dar de presente</t>
   </si>
   <si>
-    <t xml:space="preserve">"É indiferente, para a cobrança de imposto, se o bem foi recebido a título de presente. 
+    <t xml:space="preserve"> É indiferente, para a cobrança de imposto, se o bem foi recebido a título de presente. 
 Se a mercadoria não se enquadrar em algum caso de isenção, a encomenda não será isenta apesar de ser um presente.
-&lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/nao-tributacao' &gt;Verifique aqui os casos de isenção&lt;/a&gt;." </t>
+&lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/nao-tributacao' &gt;Verifique aqui os casos de isenção&lt;/a&gt;.  </t>
   </si>
   <si>
     <t xml:space="preserve">oi
@@ -6128,8 +5781,8 @@
 como funciona a seleção do que cai na fiscalização?</t>
   </si>
   <si>
-    <t xml:space="preserve">"Algumas encomendas podem não ter sido selecionadas para conferência pelas autoridades da Receita Federal.   
-Porém, em até 5 anos, pode haver revisão aduaneira para apurar a regularidade da importação e, se for o caso, cobrado o imposto devido." </t>
+    <t xml:space="preserve"> Algumas encomendas podem não ter sido selecionadas para conferência pelas autoridades da Receita Federal.   
+Porém, em até 5 anos, pode haver revisão aduaneira para apurar a regularidade da importação e, se for o caso, cobrado o imposto devido.  </t>
   </si>
 </sst>
 </file>
@@ -6229,21 +5882,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="29.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="120.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="114.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="71.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="72.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,1128 +5922,373 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="1300.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="2185.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
+    <row r="7" customFormat="false" ht="1602.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
+    <row r="8" customFormat="false" ht="1143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="1300.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="2005.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="2185.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="1602.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="1625.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="1143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="964.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="2005.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="1983.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="1625.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="964.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="1983.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="3136.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="3136.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="1289.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="1994.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="1289.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>55</v>
+    <row r="30" customFormat="false" ht="1334.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>56</v>
+    <row r="31" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>57</v>
+    <row r="32" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>58</v>
+    <row r="33" customFormat="false" ht="968.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>59</v>
+    <row r="34" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>62</v>
+    <row r="35" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>63</v>
+    <row r="36" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>64</v>
+    <row r="37" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>65</v>
+    <row r="38" customFormat="false" ht="1412.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>66</v>
+    <row r="39" customFormat="false" ht="1200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>67</v>
+    <row r="40" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>69</v>
+    <row r="41" customFormat="false" ht="1042.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>70</v>
+    <row r="42" customFormat="false" ht="2498.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>71</v>
+    <row r="43" customFormat="false" ht="997.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>72</v>
+    <row r="44" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>73</v>
+    <row r="45" customFormat="false" ht="2028.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>74</v>
+      <c r="B46" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>75</v>
+    <row r="47" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>76</v>
+    <row r="48" customFormat="false" ht="1267.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>77</v>
+    <row r="49" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="50" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="1334.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="968.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="1412.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="1200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="1042.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="2498.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="997.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="2028.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="1267.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_remessas_220223.xlsx
+++ b/dataset_remessas_220223.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve">questions</t>
   </si>
@@ -28,7 +28,9 @@
     <t xml:space="preserve">answer</t>
   </si>
   <si>
-    <t xml:space="preserve">Valeu!
+    <t xml:space="preserve">#despedida
+Obrigada
+Valeu!
 não, obrigada
 não, obrigado
 obrigado!
@@ -143,7 +145,9 @@
     <t xml:space="preserve">A Receita Federal agradece a sua visita. Conte conosco quando precisar de mais informações!</t>
   </si>
   <si>
-    <t xml:space="preserve">O número de rastreamento da mercadoria é
+    <t xml:space="preserve">#acompanhar_entrega
+Como acompanho o envio da minha encomenda?
+O número de rastreamento da mercadoria é
 Status da mercadoria 
 Aonde encontro informação de onde está a minha remessa?
 Aonde encontro o número para achar a minha encomenda? 
@@ -418,7 +422,9 @@
 Caso tenha sido transportada por outra empresa, consulte &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;a relação de empresas transportadoras habilitadas e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quem entregará minha remessa?
+    <t xml:space="preserve">#retirada
+Onde retirar a encomenda?
+Quem entregará minha remessa?
 Quem entregará minha remessa?
 Quem entregara minha remessa?
 A minha encomenda não chegou no destino pois está sob fiscalização em outro município, como faço para retirá-la ? 
@@ -486,7 +492,9 @@
 &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;Consulte aqui a relação de empresas transportadoras autorizadas a operar na modalidade Remessa Expressa e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A fiscalização pode me dar outra chance e fazer uma nova análise?
+    <t xml:space="preserve">#retomada_despacho
+Como solicitar a retomada de despacho?
+A fiscalização pode me dar outra chance e fazer uma nova análise?
 Ainda tem como impedir a devolução e dar prosseguimento da entrega?
 Ainda tenho como pagar a tarifa dos Correios e receber o pacote?
 Existe solução para impedir a devolução?
@@ -613,7 +621,9 @@
 Caso tenha sido transportada por outra empresa, consulte &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;a relação de empresas transportadoras habilitadas a trabalhar com remessa expressa e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acredito que minha compra esteja parada sem providências pois o status não muda 
+    <t xml:space="preserve">#canais_de_atendimento
+Como entro em contato?
+Acredito que minha compra esteja parada sem providências pois o status não muda 
 Faz tempo q pg, não era pra ter chegado
 onde fazer a denúncia?
 faz tempo que paguei e ainda não chegou 
@@ -815,7 +825,9 @@
 Caso tenha sido transportada por outra empresa, consulte &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;aqui&lt;/a&gt; a relação de empresas de courier habilitadas e o site de cada uma.</t>
   </si>
   <si>
-    <t xml:space="preserve">A mensagem diz que minha compra será devolvida
+    <t xml:space="preserve">#devolucao
+Por que meu objeto está sendo devolvido?
+A mensagem diz que minha compra será devolvida
 Em devolução - DESCRIÇÃO DE CONTEÚDO COM INFORMAÇÕES insuficientes
 Em devolução à origem por determinação da Receita Federal
 Desisti da mercadoria
@@ -972,7 +984,9 @@
 Caso tenha sido transportada por outra empresa, consulte &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;a relação de empresas transportadoras habilitadas e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Receita Federal fiscaliza o que sai do país por remessa?
+    <t xml:space="preserve">#orientacoes_exportacao
+Quais as regras para exportação de encomenda?
+A Receita Federal fiscaliza o que sai do país por remessa?
 coloquei uma encomenda nos correios para mandar do Brasil a Portugal, mais não sabíamos que era preciso nota fiscal na caixa as demais coisas nescessárias mais temos a nota fiscal em mãos, a agência dos correios não nos informou como deveria ser não soube orientar nós e agora eu venho solicitar a devolução da minha mercadoria no remetente
 Gostaria de me informar com um fiscal de comex quais são as exigências para exportar cosméticos
 qual a exigência para exportar
@@ -1083,7 +1097,9 @@
 &lt;b&gt;Na exportação de encomendas, não há cobrança pela Receita Federal&lt;/b&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Q q a receita cobra?
+    <t xml:space="preserve">#o_que_pode_ser_cobrado
+O que é cobrado nas encomendas internacionais?
+Q q a receita cobra?
 O q a receita fica pra ela na encomenda internacional?
 qual o limite de valor para importaçao pelos correios?
 É muito caro importar?
@@ -1274,7 +1290,9 @@
 Cuidado com golpes! O pagamento de impostos não é feito por transferência bancária ou depósito em conta.  Veja a reportagem onde a &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/noticias/2021/marco/receita-federal-faz-alerta-sobre-fraudes-envolvendo-o-nome-da-instituicao' &gt;Receita Federal faz alerta sobre fraudes envolvendo o nome da instituição&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Receita pode me exigir o pagamento de R$15,00?
+    <t xml:space="preserve">#despacho_postal
+O que é a tarifa de despacho postal? 
+A Receita pode me exigir o pagamento de R$15,00?
 Me recuso a pagar o valor postal. O que faço para receber a minha encomenda?
 Como pagar a taxa correio
 Por que além do imposto me cobraram quinze reais?
@@ -1352,7 +1370,9 @@
 Clique &lt;a href='https://www.correios.com.br/receber/encomenda/saiba-mais-internacional' target='_blank' &gt;aqui e saiba mais sobre o Despacho Postal&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">valor aduaneiro de um produto 
+    <t xml:space="preserve">#calcular_imposto
+Como é calculado o imposto de importação? 
+valor aduaneiro de um produto 
 quanto pago de imposto em minhas importações?
 qual o valor que vocês usam pra calcular o imposto?
 qual a conta feita pra chegar nesse valor de taxa?
@@ -1511,7 +1531,9 @@
 Cuidado com golpes! O pagamento de impostos não é feito por transferência bancária ou depósito em conta.  Veja a reportagem onde a &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/noticias/2021/marco/receita-federal-faz-alerta-sobre-fraudes-envolvendo-o-nome-da-instituicao' &gt;Receita Federal faz alerta sobre fraudes envolvendo o nome da instituição&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A empresa na qual comprei o produto não fez o registro corretamente e estão me cobrando multa, quem deve pagar? 
+    <t xml:space="preserve">#multa
+Por que cobraram multa?
+A empresa na qual comprei o produto não fez o registro corretamente e estão me cobrando multa, quem deve pagar? 
 terei multa se a declaração foi feita com informação errada?
 A Receita me multou mas não entendi
 Qual o critério para aplicarem multas tão altas?
@@ -1607,7 +1629,9 @@
 Veja &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Infracoes_e_penalidades#Multas' &gt;exemplos detalhados sobre o cálculo de multas&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A pesquisa da minha remessa diz que preciso pagar, onde pago para receber a minha encomenda?
+    <t xml:space="preserve">#pagamento
+Como pagar o imposto ou multa, qual o prazo e o que acontece na falta de pagamento?
+A pesquisa da minha remessa diz que preciso pagar, onde pago para receber a minha encomenda?
 Como é que pago o imposto comprando da China via internet?
 pagar impostos
 pagar multa
@@ -1798,7 +1822,9 @@
 Cuidado com golpes! O pagamento de impostos não é feito por transferência bancária ou depósito em conta.  Veja a reportagem onde a &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/noticias/2021/marco/receita-federal-faz-alerta-sobre-fraudes-envolvendo-o-nome-da-instituicao' &gt;Receita Federal faz alerta sobre fraudes envolvendo o nome da instituição&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprei nas Americanas e achei que já estava pagando os impostos, mas veio a cobrança antes de receber
+    <t xml:space="preserve">#pagamento_antecipado
+Como saber se o imposto foi pago antecipadamente?
+Comprei nas Americanas e achei que já estava pagando os impostos, mas veio a cobrança antes de receber
 Eu pensei que já havia pago tudo. 
 Quando contrata o frete por transportadora eu pago tudo antes ? 
 Eu já tinha pago tudo no momento da compra. Não faz sentido vocês me cobrarem de novo
@@ -1885,7 +1911,9 @@
 Cuidado com golpes! O pagamento de impostos não é feito por transferência bancária ou depósito em conta.  Veja a reportagem onde a &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/noticias/2021/marco/receita-federal-faz-alerta-sobre-fraudes-envolvendo-o-nome-da-instituicao' &gt;Receita Federal faz alerta sobre fraudes envolvendo o nome da instituição&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprei 2 itens e um deles saia de graça na promoção. Posso comprovar com a tela do site para não ter cobrança da Receita Federal?
+    <t xml:space="preserve">#desconto
+Como o desconto obtido na compra é considerado no cálculo do imposto?
+Comprei 2 itens e um deles saia de graça na promoção. Posso comprovar com a tela do site para não ter cobrança da Receita Federal?
 programa fidelidade é taxado?
 programa fidelidade e taxado?
 programa de fidelidade é taxado?
@@ -1979,7 +2007,9 @@
 Neste caso, o valor utilizado para calcular o imposto será o valor de mercado do bem.</t>
   </si>
   <si>
-    <t xml:space="preserve">E cobrado imposto de importacao de revistas
+    <t xml:space="preserve">#importar_livros_CD
+Comprar livros, revistas, CDs e DVDs por meio de encomenda internacional paga imposto?
+E cobrado imposto de importacao de revistas
 Posso importar CD?
 Quero importar revistinhas em quadrinhos para eu ler
 A Receita vai me taxá pelas revistinhas da Marvel que importei pelos Correios para minha coleção?
@@ -2046,7 +2076,9 @@
 Se você foi cobrado, clique &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;aqui e saiba mais sobre o pedido de revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">encomenda dentro do padrão de isenção de cem dolares
+    <t xml:space="preserve">#100dolares
+Por que fui tributado se minha encomenda tinha valor menor que 100 dólares?
+encomenda dentro do padrão de isenção de cem dolares
 mercadoria foi declarada no momento do despacho como 100 dólares
 quero de volta meu dinheiro pq a minha compra está abaixo de cem
 cem reais
@@ -2160,7 +2192,9 @@
 Veja &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/noticias/2014/fevereiro/nota-tecnica-limite-de-isencao-em-remessas-de-pequeno-valor' &gt;aqui a posição oficial da Receita sobre o assunto&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">produto veio quebrado
+    <t xml:space="preserve">#enviar_conserto_exportacao_temporaria
+Como enviar um bem para conserto ou troca por outro no exterior? Serei tributado?
+produto veio quebrado
 A Receita pode taxar o equipamento que eu enviei para conserto fora do país ? 
 Posso mandar para o reparo se comprei fora e veio com defeito?
 tive que enviar para reparo e quero receber de volta sem taxa
@@ -2226,7 +2260,9 @@
 Se você recebeu cobrança e acredita que seja indevida, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Procedimentos#Revisao' &gt;verifique os procedimentos sobre Revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Não tive conhecimento da cobrança dos impostos, tenho uma segunda chance para pedir uma revisâo?
+    <t xml:space="preserve">#revisao
+Como, quando e onde pedir revisão da declaração de importação de encomendas?
+ Não tive conhecimento da cobrança dos impostos, tenho uma segunda chance para pedir uma revisâo?
 posso recorrer da multa?
 fui multado, o que posso fazer?
 Gostaria que fizessem uma nova valoração do produto que importei, o cálculo está errado
@@ -2518,7 +2554,9 @@
 &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Procedimentos#Revisao' &gt;Clique aqui para saber mais sobre Revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Importei remédios e paguei imposto, e agora?
+    <t xml:space="preserve">#restituicao
+Paguei para retirar minha encomenda mas quero pedir restituição do imposto pago
+Importei remédios e paguei imposto, e agora?
 Importei medicamentos, dá para pegar meu imposto de volta?
 A transportadora disse que tenho que pagar para receber meu pacote e depois posso pedir a devolução do valor, isso procede?
 Como faço para recorrer do valor que paguei?
@@ -2630,7 +2668,9 @@
 • Se pessoa jurídica, cópia simples do contrato ou estatuto social atualizado, e documento de identidade do signatário do pedido, com os documentos que comprovem poderes para realizar o pedido em nome da pessoa jurídica, caso os poderes não estejam expressos no contrato social ou estatuto.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Receita cobra imposto de remedio importado
+    <t xml:space="preserve">#importar_medicamentos
+As encomendas internacionais contendo medicamentos tem isenção?
+A Receita cobra imposto de remedio importado
 As encomendas internacionais contendo cosméticos tem isenção?
 A remessa internacional de suplemento alimentar tambem nao paga imposto
 remedio vindo de fora paga imposto
@@ -2698,7 +2738,9 @@
 Se você foi cobrado,  &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;clique aqui e saiba mais sobre o pedido de revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Posso importar exemplares de um produto para ver a qualidade?
+    <t xml:space="preserve">#importar_amostra
+Posso importar amostras para teste?
+Posso importar exemplares de um produto para ver a qualidade?
 Quero importar amostras
 Quais as regras para importacao de amostras
 Fui taxado em amostras, consigo recuperar?
@@ -2758,7 +2800,9 @@
 Se você foi cobrado, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;clique aqui e saiba mais sobre o pedido de revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A isenção do imposto é aplicada para retorno de objetos enviados para o exterior que retornam ao país?
+    <t xml:space="preserve">#retorno_de_bens_exportados
+Enviei mercadoria em consignação e ela retornou porque não foi vendida  vou pagar imposto?
+A isenção do imposto é aplicada para retorno de objetos enviados para o exterior que retornam ao país?
 Enviei para outro país uma coleção em consignação e não foi vendida, no retorno será tributada?
 exportei peças em consignação que vão voltar pelo correio 
 Mandei uma carteira de couro de jacaré para minha prima q mora em Dubai mas a legislação de lá não permite a entrada desse tipo de mercadoria. Serei taxado na volta do produto ? 
@@ -2885,7 +2929,9 @@
 Se você foi cobrado, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;clique aqui e saiba mais sobre o pedido de revisão&lt;/a&gt;. </t>
   </si>
   <si>
-    <t xml:space="preserve">A ultima informacao que recebi da minha encomenda foi de que estava no Aeroporto e que teria que depositar o valor dos impostos para ser liberada Esta correto
+    <t xml:space="preserve">#golpe
+Recebi um presente do exterior mas pediram pra depositar o imposto numa conta bancária
+A ultima informacao que recebi da minha encomenda foi de que estava no Aeroporto e que teria que depositar o valor dos impostos para ser liberada Esta correto
 acho que fui enganada, como verificar?
 a cobrança é legítima?
 a cobrança recebida é verdadeira?
@@ -2996,7 +3042,9 @@
 &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/noticias/2021/marco/receita-federal-faz-alerta-sobre-fraudes-envolvendo-o-nome-da-instituicao' &gt;Cuidado com golpes&lt;/a&gt;:&lt;b&gt; o pagamento de impostos nunca é feito por transferência bancária ou depósito em conta&lt;/b&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">o que posso importar?
+    <t xml:space="preserve">#permitido_e_proibido
+O que pode ser importado por meio de encomendas internacionais?
+o que posso importar?
 vegetais da vida silvestre
 diamantes
 fumo
@@ -3185,7 +3233,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comprei alguns itens para a minha loja mas veio no CPF ao inves do CNPJ pagarei multa
+    <t xml:space="preserve">#finalidade
+Pessoa física pode importar mercadorias com finalidade comercial e/ou industrial por encomenda internacional?
+Comprei alguns itens para a minha loja mas veio no CPF ao inves do CNPJ pagarei multa
 Importação via courier para revenda
 revenda
 Importação para revender
@@ -3238,7 +3288,9 @@
 &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P10.3' &gt;Clique aqui e saiba mais sobre o tema&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A minha irmã, que mora na França, quer mandar algumas peças de roupa dos meus sobrinhos para os meus filhos
+    <t xml:space="preserve">#bens_usados
+Posso importar qualquer produto usado por encomenda internacional?
+A minha irmã, que mora na França, quer mandar algumas peças de roupa dos meus sobrinhos para os meus filhos
 O meu tio que mora nos EUA vai me enviar um celular que era dele para o meu filho. Vou ser taxado ? 
 é proibido importar produto usado ? 
 Minha família que mora fora quer me mandar umas doações de roupas que não usam mais. 
@@ -3345,7 +3397,9 @@
 • destinados a uso ou consumo pessoal, importados por pessoa física.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adquiri pecas para o meu carro e quero saber se terei problemas
+    <t xml:space="preserve">#importar_pecas_automotivas
+Posso importar partes e peças para veículos automotores por encomenda internacional? 
+Adquiri pecas para o meu carro e quero saber se terei problemas
 Comprei uma peca de automovel no exterior ela pode ser enviada por remessa
 Gostaria de importar pecas de automovel para revenda e possivel fazer isso por remessa
 Meu carro e importado mas esta antigo so consigo consertar se trouxer pecas do exterior A fiscalizacao vai barrar
@@ -3386,7 +3440,9 @@
 Pessoa Jurídica pode importar partes e peças para comércio ou industrialização.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como declaro importacao de software
+    <t xml:space="preserve">#importar_software
+Quais as condições para importação de software sem finalidade comercial?
+Como declaro importacao de software
 Como comprar um utilitário sem ser taxado?
 se eu comprar software de fora pagarei imposto sobre ele ou apenas sobre a midia
 o windows server que comprei vira num dvd
@@ -3423,7 +3479,9 @@
 Dessa forma, o tributo será cobrado somente sobre o meio físico.</t>
   </si>
   <si>
-    <t xml:space="preserve"> percebi que o endereço de entrega está errado, como altero?
+    <t xml:space="preserve">#alterar_endereço
+Como posso corrigir ou alterar o endereço de entrega da encomenda?
+ percebi que o endereço de entrega está errado, como altero?
 A Fedex disse que o endereço está errado, como solicitar a alteração?
 Vocês podem alterar meu endereço de entrega?
 Voces podem alterar meu endereco de entrega?
@@ -3549,7 +3607,9 @@
 Para mais informações, verifique com os &lt;a href='https://cas.correios.com.br/login' target='_blank'&gt;Correios&lt;/a&gt; ou com a &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;empresa transportadora responsável&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como declarar envio de remessa?
+    <t xml:space="preserve">#informacoes_conhecimento postal
+Quais dados do destinatário  do remetente e da encomenda devem ser informados no conhecimento postal?
+Como declarar envio de remessa?
 Eu tenho de informar o número do CPF aos Correios?
 tenho que dar meu cpf?
 preciso falar meu cpf?
@@ -3659,7 +3719,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A DIR ainda não foi registrada e preciso corrigir um dado. 
+    <t xml:space="preserve">#retificar_informacoes
+Posso solicitar que as informações sejam retificadas para que a fiscalização não aplique multa?
+A DIR ainda não foi registrada e preciso corrigir um dado. 
 A quantidade declarada veio errada, só foi entregue metade, posso solicitar a retificação da declaração?
 Como corrigir a declaração que está com informações erradas ?
 Como fazer para solicitar correção das informações declaradas? 
@@ -3737,7 +3799,9 @@
 Caso tenha sido transportada por outra empresa, consulte &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt; a relação de empresas transportadoras habilitadas e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Minha bagagem foi parada pela Receita Federal, onde verificar as exigências e atendê-las?
+    <t xml:space="preserve">#em_fiscalizacao
+Minha encomenda está em fiscalização aduaneira. Quanto tempo demora e o que fazer?
+Minha bagagem foi parada pela Receita Federal, onde verificar as exigências e atendê-las?
  eu tenho um produto apreendido ou retido com vocês da receita eu gostaria de saber oq devo fazer se possível pagar o imposto para a liberação do produto q veio de fora do país
 Não abram meu pacote!
 Declarei tudo certinho mas não foi autorizada a entrada no país, por quê?
@@ -4132,7 +4196,9 @@
 Veja &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Procedimentos#Conferencia' &gt;como é feita a conferência aduaneira&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">A minha encomenda não veio do exterior mas aparece que está em fiscalização 
+    <t xml:space="preserve">#encomenda_nacional
+Por que minha encomenda será fiscalizada se não veio do exterior?
+A minha encomenda não veio do exterior mas aparece que está em fiscalização 
 Existe fiscalização da Receita se a remessa veio de dentro do país 
 Mas a minha encomenda veio de um fabricante brasileiro. Pq ela tá sendo fiscalizada 
 Não entendo pq uma compra dentro do Brasil tem q ser fiscalizada 
@@ -4199,7 +4265,9 @@
 Fique atento: Alguns sites nacionais também fazem vendas internacionais. </t>
   </si>
   <si>
-    <t xml:space="preserve">Como faço se o fornecedor não me envia o que me foi exigido 
+    <t xml:space="preserve">#exigencia_nao_atendida
+Encomenda estava em fiscalização aduaneira com exigência ao destinatário não atendida. 
+Como faço se o fornecedor não me envia o que me foi exigido 
 O fabricante não me enviou os documentos completos 
 Enviei somente parte dos documentos. Quero enviar o restante.
 Quero uma segunda revisão.
@@ -4246,7 +4314,9 @@
 Caso tenha sido transportada por outra empresa, consulte &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;a relação de empresas transportadoras habilitadas e o site de cada uma&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">devolução não permitida
+    <t xml:space="preserve">#encomenda_abandonada
+Objeto abandonado
+devolução não permitida
 Minha encomenda foi considerada abandonada
 Em q situações q a mercadoria é considerada abandonada ? 
 Por que minha mercadoria foi abandonada?
@@ -4309,7 +4379,9 @@
 O ABANDONO da mercadoria pode levar à aplicação da pena de perdimento, a depender da instrução dada pelo remetente no documento postal.</t>
   </si>
   <si>
-    <t xml:space="preserve">o vendedor fez uma declaração falsa no meu pacote
+    <t xml:space="preserve">#em_perdimento
+Penalidades nas encomendas internacionais 
+o vendedor fez uma declaração falsa no meu pacote
 Em que situações a fiscalização pode não entregar meu objeto?
 Fui cobrado indevidamente, em dobro porque minha compra veio em dois pacotes separados
 Minha compra pode ser encaminhada por partes?
@@ -4387,7 +4459,9 @@
 Para saber mais sobre os casos de perdimento de mercadorias, consulte o tópico &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Infracoes_e_penalidades' &gt;Infrações e Penalidades&lt;/a&gt; do Manual Aduaneiro no site da Receita Federal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Até quanto tempo eu tenho para receber minha bagagem do exterior sem ser taxado?
+    <t xml:space="preserve">#bagagem
+Vou pagar imposto pela bagagem que veio por encomenda?
+Até quanto tempo eu tenho para receber minha bagagem do exterior sem ser taxado?
 Cobraram um imposto absurdo sobre a minha remessa que era bagagem
 Como faço para trazer minha bagagem desacompanhada ? 
 Estou com problema da minha encomenda vinda do exterior eu ja morei fora e voltei pro brasil 
@@ -4530,7 +4604,9 @@
 Se você foi cobrado, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;saiba mais sobre o pedido de revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como saber se vou pagar imposto pra trazer de volta pertences esquecidos no exterior?
+    <t xml:space="preserve">#retorno_de_objetos_esquecidos_no_exterior
+Serei taxado ao trazer meus objetos esquecidos no exterior?
+Como saber se vou pagar imposto pra trazer de volta pertences esquecidos no exterior?
 meu celular está vindo pelo correio mas ele já era meu, esqueci lá 
 Vou ter q pg pra Receita qdo chegar meu celular q esqueci em Miami 
 Tenho q pg mais alguma coisa pra vcs por conta da chegada de uma mal de mão q esqueci no Hotel 
@@ -4643,7 +4719,9 @@
 Caso a encomenda seja tributada, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Procedimentos#Revisao' &gt; você pode entrar com pedido de revisão&lt;/a&gt;, antes do pagamento dos tributos, anexando toda a documentação que comprove a condição de bagagem.</t>
   </si>
   <si>
-    <t xml:space="preserve">Como apresentar os comprovantes de que morei no exterior para ter isenção?
+    <t xml:space="preserve">#documentacao_bagagem
+Que documentos devo apresentar para ter a isenção de bagagem desacompanhada na encomenda internacional?
+Como apresentar os comprovantes de que morei no exterior para ter isenção?
 Como comprovo que morei no exterior e tenho direito à isenção ?
 mudei e trouxe meus pertences, como provo para não ter imposto?
 Como comprovar que era mudança para não pagar o imposto?
@@ -4734,7 +4812,9 @@
 O não atendimento das condições resultará&lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/tributacao#RTS' &gt; na utilização das regras gerais do Regime de Tributação Simplificada (RTS)&lt;/a&gt; para a mercadoria cujo valor não ultrapasse US$ 3.000,00 (três mil dólares).</t>
   </si>
   <si>
-    <t xml:space="preserve">A Receita pode parar meu pacote se tiver somente documentos?
+    <t xml:space="preserve">#isencao_documentos
+A Receita cobra imposto sobre documentos?
+A Receita pode parar meu pacote se tiver somente documentos?
 Uma nota fiscal que será enviada por um amigo do exterior é taxada pela Receita?
 Preciso importar um comprovante de recebimento. Vou ter que pagar pra Receita?
 Um envelope contendo declarações da empresa será taxado na importação?
@@ -4834,7 +4914,9 @@
 Se a sua encomenda continha apenas documentos e houve cobrança de imposto, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;veja aqui como pedir Revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Por que a Receita está me cobrando imposto se no site que comprei disse que era isento?
+    <t xml:space="preserve">#isencao
+Quais os casos de isenção nas encomendas internacionais?
+Por que a Receita está me cobrando imposto se no site que comprei disse que era isento?
 Paguei 50dólares e minha mercadoria foi taxada
 Existe cota de isenção nas compras internacionais?
 qual o limite de isenção para remessa expressa courier
@@ -5070,7 +5152,9 @@
 Se você foi cobrado, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/Perguntas_e_Respostas#P8.1' &gt;clique aqui para se informar sobre o pedido de revisão&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">como importar?
+    <t xml:space="preserve">#orientacao_importacao
+Onde consigo orientações sobre importação através de encomenda internacional?
+como importar?
 qual o limite de peso para poder importar?
 quero comprar de um site internacional
 como comprar um produto importado e receber pelos Correios?
@@ -5166,7 +5250,9 @@
 - &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/empresas-autorizadas-a-operar-na-modalidade-remessa-expressa' &gt;Empresas de Courier habilitadas a operar com encomenda expressa&lt;/a&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">fiz uma compra internacional, ela pode vir para o Brasil por remessa expressa?
+    <t xml:space="preserve">#conceitos_encomendas
+O que são encomendas internacionais?
+fiz uma compra internacional, ela pode vir para o Brasil por remessa expressa?
 O que são remessas internacionais?
 remessas internacionais 
 qual a diferneça entre encomenda postal e encomenda expressa
@@ -5261,7 +5347,9 @@
 Para saber mais sobre os aspectos gerais de encomendas Internacionais, as declarações, impostos e procedimentos, &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa' &gt;consulte o Manual de Remessas Internacionais&lt;/a&gt;.  </t>
   </si>
   <si>
-    <t xml:space="preserve">auxílio emergencial
+    <t xml:space="preserve">#robo_nao_sabe
+Outros assuntos que não se enquadram em encomendas internacionais
+auxílio emergencial
 quem é classificado como artesão
 Como é calculado o ICMS?
 o que é mercadoria que atenta à moral e aos bons costumes?
@@ -5449,10 +5537,16 @@
 Lembre-se que sei responder apenas sobre encomendas Internacionais e somente temas que são atribuição da Receita Federal.</t>
   </si>
   <si>
+    <t xml:space="preserve">#assedio
+Assédio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Você está escrevendo de uma forma desrespeitosa ou preconceituosa. Todos devem ser tratados com respeito e educação. Mude seu jeito de falar e depois me chame.</t>
   </si>
   <si>
-    <t xml:space="preserve">alterar cadastro
+    <t xml:space="preserve">#cadastro
+precisa algum cadastro na receita pra importar por encomenda?
+alterar cadastro
 vou comprar nas Americanas, preciso me cadastrar?
 registro
 preciso me habilitar para importar?
@@ -5509,7 +5603,9 @@
 Sobre a necessidade de algum cadastro nos correios ou transportadora contratada, verifique no atendimento daquelas empresas.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Vou receber um presente que custa menos de 100 dólares. Terei que pagar algum valor?
+    <t xml:space="preserve">#presentes
+presentes são isentos?
+Vou receber um presente que custa menos de 100 dólares. Terei que pagar algum valor?
 Vou pagar se minha irmã me mandar uma lembrancinha de 15 dolares dos Estados Unidos pelos Correios?
 Vou receber uma lembrança de um amigo que custa 45 dolares. Vou pagar?
 Um amigo me enviou um brinquedo de 35 dolares para o meu filho do exterior pelos Correios. Vou ser cobrada pela Receita?
@@ -5629,7 +5725,9 @@
 &lt;a href='https://www.gov.br/receitafederal/pt-br/assuntos/aduana-e-comercio-exterior/manuais/remessas-postal-e-expressa/topicos/nao-tributacao' &gt;Verifique aqui os casos de isenção&lt;/a&gt;.  </t>
   </si>
   <si>
-    <t xml:space="preserve">oi
+    <t xml:space="preserve">#boasvindas
+Olá!
+oi
 olá
 bom dia
 boa tarde
@@ -5708,7 +5806,9 @@
     <t xml:space="preserve">Olá! Como posso ajudar?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pq tão me taxando agora se eu já tinha encomendado antes e não tinha sido cobrado por se tratar de mercadoria que não é taxada
+    <t xml:space="preserve">#conferencia
+Todas as encomendas internacionais são selecionadas para conferência?
+Pq tão me taxando agora se eu já tinha encomendado antes e não tinha sido cobrado por se tratar de mercadoria que não é taxada
 conferência
 conferencia
 só eu fui taxado!
@@ -5884,13 +5984,13 @@
   </sheetPr>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="113.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -5902,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="1233.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="1255.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5910,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="2957.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="2979.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5918,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5926,7 +6026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="1300.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="1323.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5934,7 +6034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="2185.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="2207.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5942,7 +6042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="1602.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="1625.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5950,7 +6050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="1143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="1165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5958,7 +6058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="2005.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="2028.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5966,7 +6066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5974,7 +6074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="1625.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="1647.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5982,7 +6082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="964.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="986.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -5990,7 +6090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="1983.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="2005.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5998,7 +6098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="885.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="908.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6006,7 +6106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="997.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -6014,7 +6114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -6022,7 +6122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="1211.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="1233.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -6030,7 +6130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="639.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -6038,7 +6138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="3136.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="3158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -6046,7 +6146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="1042.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -6054,7 +6154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -6062,7 +6162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="605.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -6070,7 +6170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="1289.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="1311.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -6078,7 +6178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="1154.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -6086,7 +6186,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="1994.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="2017.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -6094,7 +6194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -6102,7 +6202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="1087.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -6110,7 +6210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -6118,7 +6218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -6126,7 +6226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="1334.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="1356.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -6134,7 +6234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="1087.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -6142,7 +6242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="785.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="807.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -6150,7 +6250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="968.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="991.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -6158,7 +6258,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="695.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -6166,7 +6266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -6174,7 +6274,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -6182,7 +6282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="729.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -6190,7 +6290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="1412.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="1435.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -6198,7 +6298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="1200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="1222.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -6206,7 +6306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="930.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="952.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -6214,7 +6314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="1042.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="1064.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -6222,7 +6322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="2498.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="2520.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -6230,7 +6330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="997.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="1020.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,7 +6338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="975.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="997.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -6246,7 +6346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="2028.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="2050.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -6254,41 +6354,44 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="1267.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="1289.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="796.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="818.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
